--- a/data/resultado.xlsx
+++ b/data/resultado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,28 +465,18 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>preco</t>
+          <t>preço</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>total</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ano</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -495,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,17 +501,11 @@
       </c>
       <c r="G2" t="n">
         <v>7000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45297</v>
+        <v>45444</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -530,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,17 +530,11 @@
       </c>
       <c r="G3" t="n">
         <v>400</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -565,7 +543,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,17 +559,11 @@
       </c>
       <c r="G4" t="n">
         <v>450</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45299</v>
+        <v>45505</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -600,7 +572,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -616,17 +588,11 @@
       </c>
       <c r="G5" t="n">
         <v>4000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45300</v>
+        <v>45536</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -635,7 +601,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,17 +617,11 @@
       </c>
       <c r="G6" t="n">
         <v>2400</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45301</v>
+        <v>45566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -670,7 +630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -686,12 +646,6 @@
       </c>
       <c r="G7" t="n">
         <v>320</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
